--- a/crawler/해시태그 정리.xlsx
+++ b/crawler/해시태그 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\21winter\YBIGTA\PJ\Instagram-hashtag-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUX\Desktop\crawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C31A7-1666-445A-AA21-85E15FB0C0E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AAA5E7-F0FA-4F0A-9A94-8553C55650F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C645FC52-CB9F-C34C-9E90-EF14BF945D73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C645FC52-CB9F-C34C-9E90-EF14BF945D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방탄소술단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데일리룩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>댕댕이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탄소년단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +727,10 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -769,13 +769,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -792,13 +792,13 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -818,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -838,13 +838,13 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -861,10 +861,10 @@
         <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -881,10 +881,10 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -901,10 +901,10 @@
         <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -921,7 +921,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -949,7 +949,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
